--- a/Example files/size, dataptr, nchildren.xlsx
+++ b/Example files/size, dataptr, nchildren.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YGKim\Documents\GitHub\ReadHEKA\ReadHEKA\Example files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B68A3EAD-67BA-4649-B910-1C45A9EB6773}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BED82555-A82C-4EED-9711-9625C643D8E4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14265" windowHeight="8715" xr2:uid="{8009FF6D-ED44-400B-AD8F-E5A592D62B9B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14265" windowHeight="8715" activeTab="1" xr2:uid="{8009FF6D-ED44-400B-AD8F-E5A592D62B9B}"/>
   </bookViews>
   <sheets>
     <sheet name="200717_1hr" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
+    <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -102,7 +102,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
@@ -427,7 +427,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B07CB495-7ECC-47C6-8152-D39FB0F33C15}">
   <dimension ref="A1:E196"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
@@ -455,7 +455,7 @@
         <v>4140284</v>
       </c>
       <c r="C2">
-        <f>B3-B2</f>
+        <f t="shared" ref="C2:C33" si="0">B3-B2</f>
         <v>644</v>
       </c>
       <c r="D2">
@@ -470,7 +470,7 @@
         <v>4140928</v>
       </c>
       <c r="C3" s="2">
-        <f>B4-B3</f>
+        <f t="shared" si="0"/>
         <v>148</v>
       </c>
       <c r="D3" s="2">
@@ -485,7 +485,7 @@
         <v>4141076</v>
       </c>
       <c r="C4">
-        <f>B5-B4</f>
+        <f t="shared" si="0"/>
         <v>1412</v>
       </c>
       <c r="D4">
@@ -501,7 +501,7 @@
         <v>4142488</v>
       </c>
       <c r="C5">
-        <f>B6-B5</f>
+        <f t="shared" si="0"/>
         <v>292</v>
       </c>
       <c r="D5">
@@ -516,7 +516,7 @@
         <v>4142780</v>
       </c>
       <c r="C6">
-        <f>B7-B6</f>
+        <f t="shared" si="0"/>
         <v>516</v>
       </c>
       <c r="D6">
@@ -531,7 +531,7 @@
         <v>4143296</v>
       </c>
       <c r="C7">
-        <f>B8-B7</f>
+        <f t="shared" si="0"/>
         <v>516</v>
       </c>
       <c r="D7">
@@ -546,7 +546,7 @@
         <v>4143812</v>
       </c>
       <c r="C8">
-        <f>B9-B8</f>
+        <f t="shared" si="0"/>
         <v>1412</v>
       </c>
       <c r="D8">
@@ -562,7 +562,7 @@
         <v>4145224</v>
       </c>
       <c r="C9">
-        <f>B10-B9</f>
+        <f t="shared" si="0"/>
         <v>292</v>
       </c>
       <c r="D9">
@@ -577,7 +577,7 @@
         <v>4145516</v>
       </c>
       <c r="C10">
-        <f>B11-B10</f>
+        <f t="shared" si="0"/>
         <v>516</v>
       </c>
       <c r="D10">
@@ -592,7 +592,7 @@
         <v>4146032</v>
       </c>
       <c r="C11">
-        <f>B12-B11</f>
+        <f t="shared" si="0"/>
         <v>516</v>
       </c>
       <c r="D11">
@@ -607,7 +607,7 @@
         <v>4146548</v>
       </c>
       <c r="C12">
-        <f>B13-B12</f>
+        <f t="shared" si="0"/>
         <v>292</v>
       </c>
       <c r="D12">
@@ -622,7 +622,7 @@
         <v>4146840</v>
       </c>
       <c r="C13">
-        <f>B14-B13</f>
+        <f t="shared" si="0"/>
         <v>516</v>
       </c>
       <c r="D13">
@@ -637,7 +637,7 @@
         <v>4147356</v>
       </c>
       <c r="C14">
-        <f>B15-B14</f>
+        <f t="shared" si="0"/>
         <v>516</v>
       </c>
       <c r="D14">
@@ -652,7 +652,7 @@
         <v>4147872</v>
       </c>
       <c r="C15">
-        <f>B16-B15</f>
+        <f t="shared" si="0"/>
         <v>292</v>
       </c>
       <c r="D15">
@@ -667,7 +667,7 @@
         <v>4148164</v>
       </c>
       <c r="C16">
-        <f>B17-B16</f>
+        <f t="shared" si="0"/>
         <v>516</v>
       </c>
       <c r="D16">
@@ -682,7 +682,7 @@
         <v>4148680</v>
       </c>
       <c r="C17">
-        <f>B18-B17</f>
+        <f t="shared" si="0"/>
         <v>516</v>
       </c>
       <c r="D17">
@@ -697,7 +697,7 @@
         <v>4149196</v>
       </c>
       <c r="C18">
-        <f>B19-B18</f>
+        <f t="shared" si="0"/>
         <v>292</v>
       </c>
       <c r="D18">
@@ -712,7 +712,7 @@
         <v>4149488</v>
       </c>
       <c r="C19">
-        <f>B20-B19</f>
+        <f t="shared" si="0"/>
         <v>516</v>
       </c>
       <c r="D19">
@@ -727,7 +727,7 @@
         <v>4150004</v>
       </c>
       <c r="C20">
-        <f>B21-B20</f>
+        <f t="shared" si="0"/>
         <v>516</v>
       </c>
       <c r="D20">
@@ -742,7 +742,7 @@
         <v>4150520</v>
       </c>
       <c r="C21">
-        <f>B22-B21</f>
+        <f t="shared" si="0"/>
         <v>292</v>
       </c>
       <c r="D21">
@@ -757,7 +757,7 @@
         <v>4150812</v>
       </c>
       <c r="C22">
-        <f>B23-B22</f>
+        <f t="shared" si="0"/>
         <v>516</v>
       </c>
       <c r="D22">
@@ -772,7 +772,7 @@
         <v>4151328</v>
       </c>
       <c r="C23">
-        <f>B24-B23</f>
+        <f t="shared" si="0"/>
         <v>516</v>
       </c>
       <c r="D23">
@@ -787,7 +787,7 @@
         <v>4151844</v>
       </c>
       <c r="C24">
-        <f>B25-B24</f>
+        <f t="shared" si="0"/>
         <v>292</v>
       </c>
       <c r="D24">
@@ -802,7 +802,7 @@
         <v>4152136</v>
       </c>
       <c r="C25">
-        <f>B26-B25</f>
+        <f t="shared" si="0"/>
         <v>516</v>
       </c>
       <c r="D25">
@@ -817,7 +817,7 @@
         <v>4152652</v>
       </c>
       <c r="C26">
-        <f>B27-B26</f>
+        <f t="shared" si="0"/>
         <v>516</v>
       </c>
       <c r="D26">
@@ -832,7 +832,7 @@
         <v>4153168</v>
       </c>
       <c r="C27">
-        <f>B28-B27</f>
+        <f t="shared" si="0"/>
         <v>292</v>
       </c>
       <c r="D27">
@@ -847,7 +847,7 @@
         <v>4153460</v>
       </c>
       <c r="C28">
-        <f>B29-B28</f>
+        <f t="shared" si="0"/>
         <v>516</v>
       </c>
       <c r="D28">
@@ -862,7 +862,7 @@
         <v>4153976</v>
       </c>
       <c r="C29">
-        <f>B30-B29</f>
+        <f t="shared" si="0"/>
         <v>516</v>
       </c>
       <c r="D29">
@@ -877,7 +877,7 @@
         <v>4154492</v>
       </c>
       <c r="C30">
-        <f>B31-B30</f>
+        <f t="shared" si="0"/>
         <v>1412</v>
       </c>
       <c r="D30">
@@ -892,7 +892,7 @@
         <v>4155904</v>
       </c>
       <c r="C31">
-        <f>B32-B31</f>
+        <f t="shared" si="0"/>
         <v>292</v>
       </c>
       <c r="D31">
@@ -907,7 +907,7 @@
         <v>4156196</v>
       </c>
       <c r="C32">
-        <f>B33-B32</f>
+        <f t="shared" si="0"/>
         <v>516</v>
       </c>
       <c r="D32">
@@ -922,7 +922,7 @@
         <v>4156712</v>
       </c>
       <c r="C33">
-        <f>B34-B33</f>
+        <f t="shared" si="0"/>
         <v>516</v>
       </c>
       <c r="D33">
@@ -937,7 +937,7 @@
         <v>4157228</v>
       </c>
       <c r="C34">
-        <f>B35-B34</f>
+        <f t="shared" ref="C34:C65" si="1">B35-B34</f>
         <v>292</v>
       </c>
       <c r="D34">
@@ -952,7 +952,7 @@
         <v>4157520</v>
       </c>
       <c r="C35">
-        <f>B36-B35</f>
+        <f t="shared" si="1"/>
         <v>516</v>
       </c>
       <c r="D35">
@@ -967,7 +967,7 @@
         <v>4158036</v>
       </c>
       <c r="C36">
-        <f>B37-B36</f>
+        <f t="shared" si="1"/>
         <v>516</v>
       </c>
       <c r="D36">
@@ -982,7 +982,7 @@
         <v>4158552</v>
       </c>
       <c r="C37">
-        <f>B38-B37</f>
+        <f t="shared" si="1"/>
         <v>1412</v>
       </c>
       <c r="D37">
@@ -997,7 +997,7 @@
         <v>4159964</v>
       </c>
       <c r="C38">
-        <f>B39-B38</f>
+        <f t="shared" si="1"/>
         <v>292</v>
       </c>
       <c r="D38">
@@ -1012,7 +1012,7 @@
         <v>4160256</v>
       </c>
       <c r="C39">
-        <f>B40-B39</f>
+        <f t="shared" si="1"/>
         <v>516</v>
       </c>
       <c r="D39">
@@ -1027,7 +1027,7 @@
         <v>4160772</v>
       </c>
       <c r="C40">
-        <f>B41-B40</f>
+        <f t="shared" si="1"/>
         <v>516</v>
       </c>
       <c r="D40">
@@ -1042,7 +1042,7 @@
         <v>4161288</v>
       </c>
       <c r="C41">
-        <f>B42-B41</f>
+        <f t="shared" si="1"/>
         <v>1412</v>
       </c>
       <c r="D41">
@@ -1057,7 +1057,7 @@
         <v>4162700</v>
       </c>
       <c r="C42">
-        <f>B43-B42</f>
+        <f t="shared" si="1"/>
         <v>292</v>
       </c>
       <c r="D42">
@@ -1072,7 +1072,7 @@
         <v>4162992</v>
       </c>
       <c r="C43">
-        <f>B44-B43</f>
+        <f t="shared" si="1"/>
         <v>516</v>
       </c>
       <c r="D43">
@@ -1087,7 +1087,7 @@
         <v>4163508</v>
       </c>
       <c r="C44">
-        <f>B45-B44</f>
+        <f t="shared" si="1"/>
         <v>1412</v>
       </c>
       <c r="D44">
@@ -1102,7 +1102,7 @@
         <v>4164920</v>
       </c>
       <c r="C45">
-        <f>B46-B45</f>
+        <f t="shared" si="1"/>
         <v>292</v>
       </c>
       <c r="D45">
@@ -1117,7 +1117,7 @@
         <v>4165212</v>
       </c>
       <c r="C46">
-        <f>B47-B46</f>
+        <f t="shared" si="1"/>
         <v>516</v>
       </c>
       <c r="D46">
@@ -1132,7 +1132,7 @@
         <v>4165728</v>
       </c>
       <c r="C47">
-        <f>B48-B47</f>
+        <f t="shared" si="1"/>
         <v>1412</v>
       </c>
       <c r="D47">
@@ -1147,7 +1147,7 @@
         <v>4167140</v>
       </c>
       <c r="C48">
-        <f>B49-B48</f>
+        <f t="shared" si="1"/>
         <v>292</v>
       </c>
       <c r="D48">
@@ -1162,7 +1162,7 @@
         <v>4167432</v>
       </c>
       <c r="C49">
-        <f>B50-B49</f>
+        <f t="shared" si="1"/>
         <v>516</v>
       </c>
       <c r="D49">
@@ -1177,7 +1177,7 @@
         <v>4167948</v>
       </c>
       <c r="C50">
-        <f>B51-B50</f>
+        <f t="shared" si="1"/>
         <v>1412</v>
       </c>
       <c r="D50">
@@ -1192,7 +1192,7 @@
         <v>4169360</v>
       </c>
       <c r="C51">
-        <f>B52-B51</f>
+        <f t="shared" si="1"/>
         <v>292</v>
       </c>
       <c r="D51">
@@ -1207,7 +1207,7 @@
         <v>4169652</v>
       </c>
       <c r="C52">
-        <f>B53-B52</f>
+        <f t="shared" si="1"/>
         <v>516</v>
       </c>
       <c r="D52">
@@ -1222,7 +1222,7 @@
         <v>4170168</v>
       </c>
       <c r="C53">
-        <f>B54-B53</f>
+        <f t="shared" si="1"/>
         <v>1412</v>
       </c>
       <c r="D53">
@@ -1237,7 +1237,7 @@
         <v>4171580</v>
       </c>
       <c r="C54">
-        <f>B55-B54</f>
+        <f t="shared" si="1"/>
         <v>292</v>
       </c>
       <c r="D54">
@@ -1252,7 +1252,7 @@
         <v>4171872</v>
       </c>
       <c r="C55">
-        <f>B56-B55</f>
+        <f t="shared" si="1"/>
         <v>516</v>
       </c>
       <c r="D55">
@@ -1267,7 +1267,7 @@
         <v>4172388</v>
       </c>
       <c r="C56">
-        <f>B57-B56</f>
+        <f t="shared" si="1"/>
         <v>516</v>
       </c>
       <c r="D56">
@@ -1282,7 +1282,7 @@
         <v>4172904</v>
       </c>
       <c r="C57">
-        <f>B58-B57</f>
+        <f t="shared" si="1"/>
         <v>1412</v>
       </c>
       <c r="D57">
@@ -1297,7 +1297,7 @@
         <v>4174316</v>
       </c>
       <c r="C58">
-        <f>B59-B58</f>
+        <f t="shared" si="1"/>
         <v>292</v>
       </c>
       <c r="D58">
@@ -1312,7 +1312,7 @@
         <v>4174608</v>
       </c>
       <c r="C59">
-        <f>B60-B59</f>
+        <f t="shared" si="1"/>
         <v>516</v>
       </c>
       <c r="D59">
@@ -1327,7 +1327,7 @@
         <v>4175124</v>
       </c>
       <c r="C60">
-        <f>B61-B60</f>
+        <f t="shared" si="1"/>
         <v>1412</v>
       </c>
       <c r="D60">
@@ -1342,7 +1342,7 @@
         <v>4176536</v>
       </c>
       <c r="C61">
-        <f>B62-B61</f>
+        <f t="shared" si="1"/>
         <v>292</v>
       </c>
       <c r="D61">
@@ -1357,7 +1357,7 @@
         <v>4176828</v>
       </c>
       <c r="C62">
-        <f>B63-B62</f>
+        <f t="shared" si="1"/>
         <v>516</v>
       </c>
       <c r="D62">
@@ -1372,7 +1372,7 @@
         <v>4177344</v>
       </c>
       <c r="C63" s="2">
-        <f>B64-B63</f>
+        <f t="shared" si="1"/>
         <v>148</v>
       </c>
       <c r="D63" s="2">
@@ -1387,7 +1387,7 @@
         <v>4177492</v>
       </c>
       <c r="C64">
-        <f>B65-B64</f>
+        <f t="shared" si="1"/>
         <v>1412</v>
       </c>
       <c r="D64">
@@ -1402,7 +1402,7 @@
         <v>4178904</v>
       </c>
       <c r="C65">
-        <f>B66-B65</f>
+        <f t="shared" si="1"/>
         <v>292</v>
       </c>
       <c r="D65">
@@ -1417,7 +1417,7 @@
         <v>4179196</v>
       </c>
       <c r="C66">
-        <f>B67-B66</f>
+        <f t="shared" ref="C66:C97" si="2">B67-B66</f>
         <v>516</v>
       </c>
       <c r="D66">
@@ -1432,7 +1432,7 @@
         <v>4179712</v>
       </c>
       <c r="C67">
-        <f>B68-B67</f>
+        <f t="shared" si="2"/>
         <v>516</v>
       </c>
       <c r="D67">
@@ -1447,7 +1447,7 @@
         <v>4180228</v>
       </c>
       <c r="C68">
-        <f>B69-B68</f>
+        <f t="shared" si="2"/>
         <v>1412</v>
       </c>
       <c r="D68">
@@ -1462,7 +1462,7 @@
         <v>4181640</v>
       </c>
       <c r="C69">
-        <f>B70-B69</f>
+        <f t="shared" si="2"/>
         <v>292</v>
       </c>
       <c r="D69">
@@ -1477,7 +1477,7 @@
         <v>4181932</v>
       </c>
       <c r="C70">
-        <f>B71-B70</f>
+        <f t="shared" si="2"/>
         <v>516</v>
       </c>
       <c r="D70">
@@ -1492,7 +1492,7 @@
         <v>4182448</v>
       </c>
       <c r="C71">
-        <f>B72-B71</f>
+        <f t="shared" si="2"/>
         <v>516</v>
       </c>
       <c r="D71">
@@ -1507,7 +1507,7 @@
         <v>4182964</v>
       </c>
       <c r="C72">
-        <f>B73-B72</f>
+        <f t="shared" si="2"/>
         <v>292</v>
       </c>
       <c r="D72">
@@ -1522,7 +1522,7 @@
         <v>4183256</v>
       </c>
       <c r="C73">
-        <f>B74-B73</f>
+        <f t="shared" si="2"/>
         <v>516</v>
       </c>
       <c r="D73">
@@ -1537,7 +1537,7 @@
         <v>4183772</v>
       </c>
       <c r="C74">
-        <f>B75-B74</f>
+        <f t="shared" si="2"/>
         <v>516</v>
       </c>
       <c r="D74">
@@ -1552,7 +1552,7 @@
         <v>4184288</v>
       </c>
       <c r="C75">
-        <f>B76-B75</f>
+        <f t="shared" si="2"/>
         <v>292</v>
       </c>
       <c r="D75">
@@ -1567,7 +1567,7 @@
         <v>4184580</v>
       </c>
       <c r="C76">
-        <f>B77-B76</f>
+        <f t="shared" si="2"/>
         <v>516</v>
       </c>
       <c r="D76">
@@ -1582,7 +1582,7 @@
         <v>4185096</v>
       </c>
       <c r="C77">
-        <f>B78-B77</f>
+        <f t="shared" si="2"/>
         <v>516</v>
       </c>
       <c r="D77">
@@ -1597,7 +1597,7 @@
         <v>4185612</v>
       </c>
       <c r="C78">
-        <f>B79-B78</f>
+        <f t="shared" si="2"/>
         <v>292</v>
       </c>
       <c r="D78">
@@ -1612,7 +1612,7 @@
         <v>4185904</v>
       </c>
       <c r="C79">
-        <f>B80-B79</f>
+        <f t="shared" si="2"/>
         <v>516</v>
       </c>
       <c r="D79">
@@ -1627,7 +1627,7 @@
         <v>4186420</v>
       </c>
       <c r="C80">
-        <f>B81-B80</f>
+        <f t="shared" si="2"/>
         <v>516</v>
       </c>
       <c r="D80">
@@ -1642,7 +1642,7 @@
         <v>4186936</v>
       </c>
       <c r="C81">
-        <f>B82-B81</f>
+        <f t="shared" si="2"/>
         <v>292</v>
       </c>
       <c r="D81">
@@ -1657,7 +1657,7 @@
         <v>4187228</v>
       </c>
       <c r="C82">
-        <f>B83-B82</f>
+        <f t="shared" si="2"/>
         <v>516</v>
       </c>
       <c r="D82">
@@ -1672,7 +1672,7 @@
         <v>4187744</v>
       </c>
       <c r="C83">
-        <f>B84-B83</f>
+        <f t="shared" si="2"/>
         <v>516</v>
       </c>
       <c r="D83">
@@ -1687,7 +1687,7 @@
         <v>4188260</v>
       </c>
       <c r="C84">
-        <f>B85-B84</f>
+        <f t="shared" si="2"/>
         <v>292</v>
       </c>
       <c r="D84">
@@ -1702,7 +1702,7 @@
         <v>4188552</v>
       </c>
       <c r="C85">
-        <f>B86-B85</f>
+        <f t="shared" si="2"/>
         <v>516</v>
       </c>
       <c r="D85">
@@ -1717,7 +1717,7 @@
         <v>4189068</v>
       </c>
       <c r="C86">
-        <f>B87-B86</f>
+        <f t="shared" si="2"/>
         <v>516</v>
       </c>
       <c r="D86">
@@ -1732,7 +1732,7 @@
         <v>4189584</v>
       </c>
       <c r="C87">
-        <f>B88-B87</f>
+        <f t="shared" si="2"/>
         <v>292</v>
       </c>
       <c r="D87">
@@ -1747,7 +1747,7 @@
         <v>4189876</v>
       </c>
       <c r="C88">
-        <f>B89-B88</f>
+        <f t="shared" si="2"/>
         <v>516</v>
       </c>
       <c r="D88">
@@ -1762,7 +1762,7 @@
         <v>4190392</v>
       </c>
       <c r="C89">
-        <f>B90-B89</f>
+        <f t="shared" si="2"/>
         <v>516</v>
       </c>
       <c r="D89">
@@ -1777,7 +1777,7 @@
         <v>4190908</v>
       </c>
       <c r="C90">
-        <f>B91-B90</f>
+        <f t="shared" si="2"/>
         <v>1412</v>
       </c>
       <c r="D90">
@@ -1792,7 +1792,7 @@
         <v>4192320</v>
       </c>
       <c r="C91">
-        <f>B92-B91</f>
+        <f t="shared" si="2"/>
         <v>292</v>
       </c>
       <c r="D91">
@@ -1807,7 +1807,7 @@
         <v>4192612</v>
       </c>
       <c r="C92">
-        <f>B93-B92</f>
+        <f t="shared" si="2"/>
         <v>516</v>
       </c>
       <c r="D92">
@@ -1822,7 +1822,7 @@
         <v>4193128</v>
       </c>
       <c r="C93">
-        <f>B94-B93</f>
+        <f t="shared" si="2"/>
         <v>516</v>
       </c>
       <c r="D93">
@@ -1837,7 +1837,7 @@
         <v>4193644</v>
       </c>
       <c r="C94">
-        <f>B95-B94</f>
+        <f t="shared" si="2"/>
         <v>292</v>
       </c>
       <c r="D94">
@@ -1852,7 +1852,7 @@
         <v>4193936</v>
       </c>
       <c r="C95">
-        <f>B96-B95</f>
+        <f t="shared" si="2"/>
         <v>516</v>
       </c>
       <c r="D95">
@@ -1867,7 +1867,7 @@
         <v>4194452</v>
       </c>
       <c r="C96">
-        <f>B97-B96</f>
+        <f t="shared" si="2"/>
         <v>516</v>
       </c>
       <c r="D96">
@@ -1882,7 +1882,7 @@
         <v>4194968</v>
       </c>
       <c r="C97">
-        <f>B98-B97</f>
+        <f t="shared" si="2"/>
         <v>292</v>
       </c>
       <c r="D97">
@@ -1897,7 +1897,7 @@
         <v>4195260</v>
       </c>
       <c r="C98">
-        <f>B99-B98</f>
+        <f t="shared" ref="C98:C129" si="3">B99-B98</f>
         <v>516</v>
       </c>
       <c r="D98">
@@ -1912,7 +1912,7 @@
         <v>4195776</v>
       </c>
       <c r="C99">
-        <f>B100-B99</f>
+        <f t="shared" si="3"/>
         <v>516</v>
       </c>
       <c r="D99">
@@ -1927,7 +1927,7 @@
         <v>4196292</v>
       </c>
       <c r="C100">
-        <f>B101-B100</f>
+        <f t="shared" si="3"/>
         <v>292</v>
       </c>
       <c r="D100">
@@ -1942,7 +1942,7 @@
         <v>4196584</v>
       </c>
       <c r="C101">
-        <f>B102-B101</f>
+        <f t="shared" si="3"/>
         <v>516</v>
       </c>
       <c r="D101">
@@ -1957,7 +1957,7 @@
         <v>4197100</v>
       </c>
       <c r="C102">
-        <f>B103-B102</f>
+        <f t="shared" si="3"/>
         <v>516</v>
       </c>
       <c r="D102">
@@ -1972,7 +1972,7 @@
         <v>4197616</v>
       </c>
       <c r="C103">
-        <f>B104-B103</f>
+        <f t="shared" si="3"/>
         <v>1412</v>
       </c>
       <c r="D103">
@@ -1987,7 +1987,7 @@
         <v>4199028</v>
       </c>
       <c r="C104">
-        <f>B105-B104</f>
+        <f t="shared" si="3"/>
         <v>292</v>
       </c>
       <c r="D104">
@@ -2002,7 +2002,7 @@
         <v>4199320</v>
       </c>
       <c r="C105">
-        <f>B106-B105</f>
+        <f t="shared" si="3"/>
         <v>516</v>
       </c>
       <c r="D105">
@@ -2017,7 +2017,7 @@
         <v>4199836</v>
       </c>
       <c r="C106">
-        <f>B107-B106</f>
+        <f t="shared" si="3"/>
         <v>516</v>
       </c>
       <c r="D106">
@@ -2032,7 +2032,7 @@
         <v>4200352</v>
       </c>
       <c r="C107">
-        <f>B108-B107</f>
+        <f t="shared" si="3"/>
         <v>1412</v>
       </c>
       <c r="D107">
@@ -2047,7 +2047,7 @@
         <v>4201764</v>
       </c>
       <c r="C108">
-        <f>B109-B108</f>
+        <f t="shared" si="3"/>
         <v>292</v>
       </c>
       <c r="D108">
@@ -2062,7 +2062,7 @@
         <v>4202056</v>
       </c>
       <c r="C109">
-        <f>B110-B109</f>
+        <f t="shared" si="3"/>
         <v>516</v>
       </c>
       <c r="D109">
@@ -2077,7 +2077,7 @@
         <v>4202572</v>
       </c>
       <c r="C110">
-        <f>B111-B110</f>
+        <f t="shared" si="3"/>
         <v>1412</v>
       </c>
       <c r="D110">
@@ -2092,7 +2092,7 @@
         <v>4203984</v>
       </c>
       <c r="C111">
-        <f>B112-B111</f>
+        <f t="shared" si="3"/>
         <v>292</v>
       </c>
       <c r="D111">
@@ -2107,7 +2107,7 @@
         <v>4204276</v>
       </c>
       <c r="C112">
-        <f>B113-B112</f>
+        <f t="shared" si="3"/>
         <v>516</v>
       </c>
       <c r="D112">
@@ -2122,7 +2122,7 @@
         <v>4204792</v>
       </c>
       <c r="C113">
-        <f>B114-B113</f>
+        <f t="shared" si="3"/>
         <v>1412</v>
       </c>
       <c r="D113">
@@ -2137,7 +2137,7 @@
         <v>4206204</v>
       </c>
       <c r="C114">
-        <f>B115-B114</f>
+        <f t="shared" si="3"/>
         <v>292</v>
       </c>
       <c r="D114">
@@ -2152,7 +2152,7 @@
         <v>4206496</v>
       </c>
       <c r="C115">
-        <f>B116-B115</f>
+        <f t="shared" si="3"/>
         <v>516</v>
       </c>
       <c r="D115">
@@ -2167,7 +2167,7 @@
         <v>4207012</v>
       </c>
       <c r="C116">
-        <f>B117-B116</f>
+        <f t="shared" si="3"/>
         <v>1412</v>
       </c>
       <c r="D116">
@@ -2182,7 +2182,7 @@
         <v>4208424</v>
       </c>
       <c r="C117">
-        <f>B118-B117</f>
+        <f t="shared" si="3"/>
         <v>292</v>
       </c>
       <c r="D117">
@@ -2197,7 +2197,7 @@
         <v>4208716</v>
       </c>
       <c r="C118">
-        <f>B119-B118</f>
+        <f t="shared" si="3"/>
         <v>516</v>
       </c>
       <c r="D118">
@@ -2212,7 +2212,7 @@
         <v>4209232</v>
       </c>
       <c r="C119">
-        <f>B120-B119</f>
+        <f t="shared" si="3"/>
         <v>1412</v>
       </c>
       <c r="D119">
@@ -2227,7 +2227,7 @@
         <v>4210644</v>
       </c>
       <c r="C120">
-        <f>B121-B120</f>
+        <f t="shared" si="3"/>
         <v>292</v>
       </c>
       <c r="D120">
@@ -2242,7 +2242,7 @@
         <v>4210936</v>
       </c>
       <c r="C121">
-        <f>B122-B121</f>
+        <f t="shared" si="3"/>
         <v>516</v>
       </c>
       <c r="D121">
@@ -2257,7 +2257,7 @@
         <v>4211452</v>
       </c>
       <c r="C122">
-        <f>B123-B122</f>
+        <f t="shared" si="3"/>
         <v>516</v>
       </c>
       <c r="D122">
@@ -2272,7 +2272,7 @@
         <v>4211968</v>
       </c>
       <c r="C123" s="2">
-        <f>B124-B123</f>
+        <f t="shared" si="3"/>
         <v>148</v>
       </c>
       <c r="D123" s="2">
@@ -2287,7 +2287,7 @@
         <v>4212116</v>
       </c>
       <c r="C124">
-        <f>B125-B124</f>
+        <f t="shared" si="3"/>
         <v>1412</v>
       </c>
       <c r="D124">
@@ -2302,7 +2302,7 @@
         <v>4213528</v>
       </c>
       <c r="C125">
-        <f>B126-B125</f>
+        <f t="shared" si="3"/>
         <v>292</v>
       </c>
       <c r="D125">
@@ -2317,7 +2317,7 @@
         <v>4213820</v>
       </c>
       <c r="C126">
-        <f>B127-B126</f>
+        <f t="shared" si="3"/>
         <v>516</v>
       </c>
       <c r="D126">
@@ -2332,7 +2332,7 @@
         <v>4214336</v>
       </c>
       <c r="C127">
-        <f>B128-B127</f>
+        <f t="shared" si="3"/>
         <v>516</v>
       </c>
       <c r="D127">
@@ -2347,7 +2347,7 @@
         <v>4214852</v>
       </c>
       <c r="C128">
-        <f>B129-B128</f>
+        <f t="shared" si="3"/>
         <v>1412</v>
       </c>
       <c r="D128">
@@ -2362,7 +2362,7 @@
         <v>4216264</v>
       </c>
       <c r="C129">
-        <f>B130-B129</f>
+        <f t="shared" si="3"/>
         <v>292</v>
       </c>
       <c r="D129">
@@ -2377,7 +2377,7 @@
         <v>4216556</v>
       </c>
       <c r="C130">
-        <f>B131-B130</f>
+        <f t="shared" ref="C130:C161" si="4">B131-B130</f>
         <v>516</v>
       </c>
       <c r="D130">
@@ -2392,7 +2392,7 @@
         <v>4217072</v>
       </c>
       <c r="C131">
-        <f>B132-B131</f>
+        <f t="shared" si="4"/>
         <v>516</v>
       </c>
       <c r="D131">
@@ -2407,7 +2407,7 @@
         <v>4217588</v>
       </c>
       <c r="C132">
-        <f>B133-B132</f>
+        <f t="shared" si="4"/>
         <v>292</v>
       </c>
       <c r="D132">
@@ -2422,7 +2422,7 @@
         <v>4217880</v>
       </c>
       <c r="C133">
-        <f>B134-B133</f>
+        <f t="shared" si="4"/>
         <v>516</v>
       </c>
       <c r="D133">
@@ -2437,7 +2437,7 @@
         <v>4218396</v>
       </c>
       <c r="C134">
-        <f>B135-B134</f>
+        <f t="shared" si="4"/>
         <v>516</v>
       </c>
       <c r="D134">
@@ -2452,7 +2452,7 @@
         <v>4218912</v>
       </c>
       <c r="C135">
-        <f>B136-B135</f>
+        <f t="shared" si="4"/>
         <v>292</v>
       </c>
       <c r="D135">
@@ -2467,7 +2467,7 @@
         <v>4219204</v>
       </c>
       <c r="C136">
-        <f>B137-B136</f>
+        <f t="shared" si="4"/>
         <v>516</v>
       </c>
       <c r="D136">
@@ -2482,7 +2482,7 @@
         <v>4219720</v>
       </c>
       <c r="C137">
-        <f>B138-B137</f>
+        <f t="shared" si="4"/>
         <v>516</v>
       </c>
       <c r="D137">
@@ -2497,7 +2497,7 @@
         <v>4220236</v>
       </c>
       <c r="C138">
-        <f>B139-B138</f>
+        <f t="shared" si="4"/>
         <v>292</v>
       </c>
       <c r="D138">
@@ -2512,7 +2512,7 @@
         <v>4220528</v>
       </c>
       <c r="C139">
-        <f>B140-B139</f>
+        <f t="shared" si="4"/>
         <v>516</v>
       </c>
       <c r="D139">
@@ -2527,7 +2527,7 @@
         <v>4221044</v>
       </c>
       <c r="C140">
-        <f>B141-B140</f>
+        <f t="shared" si="4"/>
         <v>516</v>
       </c>
       <c r="D140">
@@ -2542,7 +2542,7 @@
         <v>4221560</v>
       </c>
       <c r="C141">
-        <f>B142-B141</f>
+        <f t="shared" si="4"/>
         <v>292</v>
       </c>
       <c r="D141">
@@ -2557,7 +2557,7 @@
         <v>4221852</v>
       </c>
       <c r="C142">
-        <f>B143-B142</f>
+        <f t="shared" si="4"/>
         <v>516</v>
       </c>
       <c r="D142">
@@ -2572,7 +2572,7 @@
         <v>4222368</v>
       </c>
       <c r="C143">
-        <f>B144-B143</f>
+        <f t="shared" si="4"/>
         <v>516</v>
       </c>
       <c r="D143">
@@ -2587,7 +2587,7 @@
         <v>4222884</v>
       </c>
       <c r="C144">
-        <f>B145-B144</f>
+        <f t="shared" si="4"/>
         <v>292</v>
       </c>
       <c r="D144">
@@ -2602,7 +2602,7 @@
         <v>4223176</v>
       </c>
       <c r="C145">
-        <f>B146-B145</f>
+        <f t="shared" si="4"/>
         <v>516</v>
       </c>
       <c r="D145">
@@ -2617,7 +2617,7 @@
         <v>4223692</v>
       </c>
       <c r="C146">
-        <f>B147-B146</f>
+        <f t="shared" si="4"/>
         <v>516</v>
       </c>
       <c r="D146">
@@ -2632,7 +2632,7 @@
         <v>4224208</v>
       </c>
       <c r="C147">
-        <f>B148-B147</f>
+        <f t="shared" si="4"/>
         <v>292</v>
       </c>
       <c r="D147">
@@ -2647,7 +2647,7 @@
         <v>4224500</v>
       </c>
       <c r="C148">
-        <f>B149-B148</f>
+        <f t="shared" si="4"/>
         <v>516</v>
       </c>
       <c r="D148">
@@ -2662,7 +2662,7 @@
         <v>4225016</v>
       </c>
       <c r="C149">
-        <f>B150-B149</f>
+        <f t="shared" si="4"/>
         <v>516</v>
       </c>
       <c r="D149">
@@ -2677,7 +2677,7 @@
         <v>4225532</v>
       </c>
       <c r="C150">
-        <f>B151-B150</f>
+        <f t="shared" si="4"/>
         <v>1412</v>
       </c>
       <c r="D150">
@@ -2692,7 +2692,7 @@
         <v>4226944</v>
       </c>
       <c r="C151">
-        <f>B152-B151</f>
+        <f t="shared" si="4"/>
         <v>292</v>
       </c>
       <c r="D151">
@@ -2707,7 +2707,7 @@
         <v>4227236</v>
       </c>
       <c r="C152">
-        <f>B153-B152</f>
+        <f t="shared" si="4"/>
         <v>516</v>
       </c>
       <c r="D152">
@@ -2722,7 +2722,7 @@
         <v>4227752</v>
       </c>
       <c r="C153">
-        <f>B154-B153</f>
+        <f t="shared" si="4"/>
         <v>516</v>
       </c>
       <c r="D153">
@@ -2737,7 +2737,7 @@
         <v>4228268</v>
       </c>
       <c r="C154">
-        <f>B155-B154</f>
+        <f t="shared" si="4"/>
         <v>292</v>
       </c>
       <c r="D154">
@@ -2752,7 +2752,7 @@
         <v>4228560</v>
       </c>
       <c r="C155">
-        <f>B156-B155</f>
+        <f t="shared" si="4"/>
         <v>516</v>
       </c>
       <c r="D155">
@@ -2767,7 +2767,7 @@
         <v>4229076</v>
       </c>
       <c r="C156">
-        <f>B157-B156</f>
+        <f t="shared" si="4"/>
         <v>516</v>
       </c>
       <c r="D156">
@@ -2782,7 +2782,7 @@
         <v>4229592</v>
       </c>
       <c r="C157">
-        <f>B158-B157</f>
+        <f t="shared" si="4"/>
         <v>1412</v>
       </c>
       <c r="D157">
@@ -2797,7 +2797,7 @@
         <v>4231004</v>
       </c>
       <c r="C158">
-        <f>B159-B158</f>
+        <f t="shared" si="4"/>
         <v>292</v>
       </c>
       <c r="D158">
@@ -2812,7 +2812,7 @@
         <v>4231296</v>
       </c>
       <c r="C159">
-        <f>B160-B159</f>
+        <f t="shared" si="4"/>
         <v>516</v>
       </c>
       <c r="D159">
@@ -2827,7 +2827,7 @@
         <v>4231812</v>
       </c>
       <c r="C160">
-        <f>B161-B160</f>
+        <f t="shared" si="4"/>
         <v>516</v>
       </c>
       <c r="D160">
@@ -2842,7 +2842,7 @@
         <v>4232328</v>
       </c>
       <c r="C161">
-        <f>B162-B161</f>
+        <f t="shared" si="4"/>
         <v>1412</v>
       </c>
       <c r="D161">
@@ -2857,7 +2857,7 @@
         <v>4233740</v>
       </c>
       <c r="C162">
-        <f>B163-B162</f>
+        <f t="shared" ref="C162:C193" si="5">B163-B162</f>
         <v>292</v>
       </c>
       <c r="D162">
@@ -2872,7 +2872,7 @@
         <v>4234032</v>
       </c>
       <c r="C163">
-        <f>B164-B163</f>
+        <f t="shared" si="5"/>
         <v>516</v>
       </c>
       <c r="D163">
@@ -2887,7 +2887,7 @@
         <v>4234548</v>
       </c>
       <c r="C164">
-        <f>B165-B164</f>
+        <f t="shared" si="5"/>
         <v>1412</v>
       </c>
       <c r="D164">
@@ -2902,7 +2902,7 @@
         <v>4235960</v>
       </c>
       <c r="C165">
-        <f>B166-B165</f>
+        <f t="shared" si="5"/>
         <v>292</v>
       </c>
       <c r="D165">
@@ -2917,7 +2917,7 @@
         <v>4236252</v>
       </c>
       <c r="C166">
-        <f>B167-B166</f>
+        <f t="shared" si="5"/>
         <v>516</v>
       </c>
       <c r="D166">
@@ -2932,7 +2932,7 @@
         <v>4236768</v>
       </c>
       <c r="C167">
-        <f>B168-B167</f>
+        <f t="shared" si="5"/>
         <v>1412</v>
       </c>
       <c r="D167">
@@ -2947,7 +2947,7 @@
         <v>4238180</v>
       </c>
       <c r="C168">
-        <f>B169-B168</f>
+        <f t="shared" si="5"/>
         <v>292</v>
       </c>
       <c r="D168">
@@ -2962,7 +2962,7 @@
         <v>4238472</v>
       </c>
       <c r="C169">
-        <f>B170-B169</f>
+        <f t="shared" si="5"/>
         <v>516</v>
       </c>
       <c r="D169">
@@ -2977,7 +2977,7 @@
         <v>4238988</v>
       </c>
       <c r="C170">
-        <f>B171-B170</f>
+        <f t="shared" si="5"/>
         <v>1412</v>
       </c>
       <c r="D170">
@@ -2992,7 +2992,7 @@
         <v>4240400</v>
       </c>
       <c r="C171">
-        <f>B172-B171</f>
+        <f t="shared" si="5"/>
         <v>292</v>
       </c>
       <c r="D171">
@@ -3007,7 +3007,7 @@
         <v>4240692</v>
       </c>
       <c r="C172">
-        <f>B173-B172</f>
+        <f t="shared" si="5"/>
         <v>516</v>
       </c>
       <c r="D172">
@@ -3022,7 +3022,7 @@
         <v>4241208</v>
       </c>
       <c r="C173">
-        <f>B174-B173</f>
+        <f t="shared" si="5"/>
         <v>1412</v>
       </c>
       <c r="D173">
@@ -3037,7 +3037,7 @@
         <v>4242620</v>
       </c>
       <c r="C174">
-        <f>B175-B174</f>
+        <f t="shared" si="5"/>
         <v>292</v>
       </c>
       <c r="D174">
@@ -3052,7 +3052,7 @@
         <v>4242912</v>
       </c>
       <c r="C175">
-        <f>B176-B175</f>
+        <f t="shared" si="5"/>
         <v>516</v>
       </c>
       <c r="D175">
@@ -3067,7 +3067,7 @@
         <v>4243428</v>
       </c>
       <c r="C176">
-        <f>B177-B176</f>
+        <f t="shared" si="5"/>
         <v>516</v>
       </c>
       <c r="D176">
@@ -3082,7 +3082,7 @@
         <v>4243944</v>
       </c>
       <c r="C177">
-        <f>B178-B177</f>
+        <f t="shared" si="5"/>
         <v>1412</v>
       </c>
       <c r="D177">
@@ -3097,7 +3097,7 @@
         <v>4245356</v>
       </c>
       <c r="C178">
-        <f>B179-B178</f>
+        <f t="shared" si="5"/>
         <v>292</v>
       </c>
       <c r="D178">
@@ -3112,7 +3112,7 @@
         <v>4245648</v>
       </c>
       <c r="C179">
-        <f>B180-B179</f>
+        <f t="shared" si="5"/>
         <v>516</v>
       </c>
       <c r="D179">
@@ -3127,7 +3127,7 @@
         <v>4246164</v>
       </c>
       <c r="C180">
-        <f>B181-B180</f>
+        <f t="shared" si="5"/>
         <v>1412</v>
       </c>
       <c r="D180">
@@ -3142,7 +3142,7 @@
         <v>4247576</v>
       </c>
       <c r="C181">
-        <f>B182-B181</f>
+        <f t="shared" si="5"/>
         <v>292</v>
       </c>
       <c r="D181">
@@ -3157,7 +3157,7 @@
         <v>4247868</v>
       </c>
       <c r="C182">
-        <f>B183-B182</f>
+        <f t="shared" si="5"/>
         <v>516</v>
       </c>
       <c r="D182">
@@ -3172,7 +3172,7 @@
         <v>4248384</v>
       </c>
       <c r="C183">
-        <f>B184-B183</f>
+        <f t="shared" si="5"/>
         <v>1412</v>
       </c>
       <c r="D183">
@@ -3187,7 +3187,7 @@
         <v>4249796</v>
       </c>
       <c r="C184">
-        <f>B185-B184</f>
+        <f t="shared" si="5"/>
         <v>292</v>
       </c>
       <c r="D184">
@@ -3202,7 +3202,7 @@
         <v>4250088</v>
       </c>
       <c r="C185">
-        <f>B186-B185</f>
+        <f t="shared" si="5"/>
         <v>516</v>
       </c>
       <c r="D185">
@@ -3217,7 +3217,7 @@
         <v>4250604</v>
       </c>
       <c r="C186">
-        <f>B187-B186</f>
+        <f t="shared" si="5"/>
         <v>1412</v>
       </c>
       <c r="D186">
@@ -3232,7 +3232,7 @@
         <v>4252016</v>
       </c>
       <c r="C187">
-        <f>B188-B187</f>
+        <f t="shared" si="5"/>
         <v>292</v>
       </c>
       <c r="D187">
@@ -3247,7 +3247,7 @@
         <v>4252308</v>
       </c>
       <c r="C188">
-        <f>B189-B188</f>
+        <f t="shared" si="5"/>
         <v>516</v>
       </c>
       <c r="D188">
@@ -3262,7 +3262,7 @@
         <v>4252824</v>
       </c>
       <c r="C189">
-        <f>B190-B189</f>
+        <f t="shared" si="5"/>
         <v>1412</v>
       </c>
       <c r="D189">
@@ -3277,7 +3277,7 @@
         <v>4254236</v>
       </c>
       <c r="C190">
-        <f>B191-B190</f>
+        <f t="shared" si="5"/>
         <v>292</v>
       </c>
       <c r="D190">
@@ -3292,7 +3292,7 @@
         <v>4254528</v>
       </c>
       <c r="C191">
-        <f>B192-B191</f>
+        <f t="shared" si="5"/>
         <v>516</v>
       </c>
       <c r="D191">
@@ -3307,7 +3307,7 @@
         <v>4255044</v>
       </c>
       <c r="C192">
-        <f>B193-B192</f>
+        <f t="shared" si="5"/>
         <v>516</v>
       </c>
       <c r="D192">
@@ -3322,7 +3322,7 @@
         <v>4255560</v>
       </c>
       <c r="C193">
-        <f>B194-B193</f>
+        <f t="shared" si="5"/>
         <v>1412</v>
       </c>
       <c r="D193">
@@ -3337,7 +3337,7 @@
         <v>4256972</v>
       </c>
       <c r="C194">
-        <f>B195-B194</f>
+        <f t="shared" ref="C194:C225" si="6">B195-B194</f>
         <v>292</v>
       </c>
       <c r="D194">
@@ -3352,7 +3352,7 @@
         <v>4257264</v>
       </c>
       <c r="C195">
-        <f>B196-B195</f>
+        <f t="shared" si="6"/>
         <v>516</v>
       </c>
       <c r="D195">
@@ -3381,8 +3381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E866CAB3-73E8-4FCC-9A94-F7C0DDB6A0CE}">
   <dimension ref="A1:N53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3416,7 +3416,7 @@
         <v>129284</v>
       </c>
       <c r="C2">
-        <f>F3-B2</f>
+        <f>B3-B2</f>
         <v>644</v>
       </c>
       <c r="D2">
@@ -3425,840 +3425,759 @@
       <c r="M2" s="5"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="E3" s="1">
+      <c r="A3" s="1">
         <v>144</v>
       </c>
-      <c r="F3">
+      <c r="B3">
         <v>129928</v>
       </c>
-      <c r="H3">
+      <c r="D3">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="I4" s="2">
-        <v>1408</v>
-      </c>
-      <c r="J4">
+      <c r="A4" s="2">
+        <v>1408</v>
+      </c>
+      <c r="B4">
         <v>130076</v>
       </c>
-      <c r="K4">
-        <f>J5-J4</f>
-        <v>1412</v>
-      </c>
-      <c r="L4">
+      <c r="C4">
+        <f t="shared" ref="C4:C35" si="0">B5-B4</f>
+        <v>1412</v>
+      </c>
+      <c r="D4">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="I5" s="2">
-        <v>288</v>
-      </c>
-      <c r="J5">
+      <c r="A5" s="2">
+        <v>288</v>
+      </c>
+      <c r="B5">
         <v>131488</v>
       </c>
-      <c r="K5">
-        <f>J6-J5</f>
-        <v>292</v>
-      </c>
-      <c r="L5">
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>292</v>
+      </c>
+      <c r="D5">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="I6" s="2">
+      <c r="A6" s="2">
         <v>424</v>
       </c>
-      <c r="J6">
+      <c r="B6">
         <v>131780</v>
       </c>
-      <c r="K6">
-        <f>J7-J6</f>
+      <c r="C6">
+        <f t="shared" si="0"/>
         <v>428</v>
       </c>
-      <c r="L6">
+      <c r="D6">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="I7" s="2">
+      <c r="A7" s="2">
         <v>424</v>
       </c>
-      <c r="J7">
+      <c r="B7">
         <v>132208</v>
       </c>
-      <c r="K7">
-        <f>J8-J7</f>
+      <c r="C7">
+        <f t="shared" si="0"/>
         <v>428</v>
       </c>
-      <c r="L7">
+      <c r="D7">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="I8" s="2">
+      <c r="A8" s="2">
         <v>424</v>
       </c>
-      <c r="J8">
+      <c r="B8">
         <v>132636</v>
       </c>
-      <c r="K8">
-        <f>J9-J8</f>
+      <c r="C8">
+        <f t="shared" si="0"/>
         <v>428</v>
       </c>
-      <c r="L8">
+      <c r="D8">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="E9" s="1">
-        <v>144</v>
-      </c>
-      <c r="F9">
-        <v>129928</v>
-      </c>
-      <c r="H9">
-        <v>10</v>
-      </c>
-      <c r="I9">
-        <v>1408</v>
-      </c>
-      <c r="J9">
+      <c r="A9">
+        <v>1408</v>
+      </c>
+      <c r="B9">
         <v>133064</v>
       </c>
-      <c r="K9">
-        <f>J10-J9</f>
-        <v>1412</v>
-      </c>
-      <c r="L9">
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>1412</v>
+      </c>
+      <c r="D9">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="I10">
-        <v>288</v>
-      </c>
-      <c r="J10">
+      <c r="A10">
+        <v>288</v>
+      </c>
+      <c r="B10">
         <v>134476</v>
       </c>
-      <c r="K10">
-        <f>J11-J10</f>
-        <v>292</v>
-      </c>
-      <c r="L10">
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>292</v>
+      </c>
+      <c r="D10">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="I11">
+      <c r="A11">
         <v>424</v>
       </c>
-      <c r="J11">
+      <c r="B11">
         <v>134768</v>
       </c>
-      <c r="K11">
-        <f>J12-J11</f>
+      <c r="C11">
+        <f t="shared" si="0"/>
         <v>428</v>
       </c>
-      <c r="L11">
+      <c r="D11">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="I12">
+      <c r="A12">
         <v>424</v>
       </c>
-      <c r="J12">
+      <c r="B12">
         <v>135196</v>
       </c>
-      <c r="K12">
-        <f>J13-J12</f>
+      <c r="C12">
+        <f t="shared" si="0"/>
         <v>428</v>
       </c>
-      <c r="L12">
+      <c r="D12">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="I13">
+      <c r="A13">
         <v>424</v>
       </c>
-      <c r="J13">
+      <c r="B13">
         <v>135624</v>
       </c>
-      <c r="K13">
-        <f>J14-J13</f>
+      <c r="C13">
+        <f t="shared" si="0"/>
         <v>428</v>
       </c>
-      <c r="L13">
+      <c r="D13">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="E14" s="1">
-        <v>144</v>
-      </c>
-      <c r="F14">
-        <v>129928</v>
-      </c>
-      <c r="H14">
-        <v>10</v>
-      </c>
-      <c r="I14" s="2">
-        <v>1408</v>
-      </c>
-      <c r="J14">
+      <c r="A14" s="2">
+        <v>1408</v>
+      </c>
+      <c r="B14">
         <v>136052</v>
       </c>
-      <c r="K14">
-        <f>J15-J14</f>
-        <v>1412</v>
-      </c>
-      <c r="L14">
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>1412</v>
+      </c>
+      <c r="D14">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="I15" s="2">
-        <v>288</v>
-      </c>
-      <c r="J15">
+      <c r="A15" s="2">
+        <v>288</v>
+      </c>
+      <c r="B15">
         <v>137464</v>
       </c>
-      <c r="K15">
-        <f>J16-J15</f>
-        <v>292</v>
-      </c>
-      <c r="L15">
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>292</v>
+      </c>
+      <c r="D15">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="I16" s="2">
+      <c r="A16" s="2">
         <v>424</v>
       </c>
-      <c r="J16">
+      <c r="B16">
         <v>137756</v>
       </c>
-      <c r="K16">
-        <f>J17-J16</f>
+      <c r="C16">
+        <f t="shared" si="0"/>
         <v>428</v>
       </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="I17" s="2">
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
         <v>424</v>
       </c>
-      <c r="J17">
+      <c r="B17">
         <v>138184</v>
       </c>
-      <c r="K17">
-        <f>J18-J17</f>
+      <c r="C17">
+        <f t="shared" si="0"/>
         <v>428</v>
       </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="I18" s="2">
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
         <v>424</v>
       </c>
-      <c r="J18">
+      <c r="B18">
         <v>138612</v>
       </c>
-      <c r="K18">
-        <f>J19-J18</f>
+      <c r="C18">
+        <f t="shared" si="0"/>
         <v>428</v>
       </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E19" s="1">
-        <v>144</v>
-      </c>
-      <c r="F19">
-        <v>129928</v>
-      </c>
-      <c r="H19">
-        <v>10</v>
-      </c>
-      <c r="I19">
-        <v>1408</v>
-      </c>
-      <c r="J19">
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>1408</v>
+      </c>
+      <c r="B19">
         <v>139040</v>
       </c>
-      <c r="K19">
-        <f>J20-J19</f>
-        <v>1412</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="I20">
-        <v>288</v>
-      </c>
-      <c r="J20">
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>1412</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>288</v>
+      </c>
+      <c r="B20">
         <v>140452</v>
       </c>
-      <c r="K20">
-        <f>J21-J20</f>
-        <v>292</v>
-      </c>
-      <c r="L20">
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>292</v>
+      </c>
+      <c r="D20">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="I21">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21">
         <v>424</v>
       </c>
-      <c r="J21">
+      <c r="B21">
         <v>140744</v>
       </c>
-      <c r="K21">
-        <f>J22-J21</f>
+      <c r="C21">
+        <f t="shared" si="0"/>
         <v>428</v>
       </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="I22">
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22">
         <v>424</v>
       </c>
-      <c r="J22">
+      <c r="B22">
         <v>141172</v>
       </c>
-      <c r="K22">
-        <f>J23-J22</f>
+      <c r="C22">
+        <f t="shared" si="0"/>
         <v>428</v>
       </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="I23">
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23">
         <v>424</v>
       </c>
-      <c r="J23">
+      <c r="B23">
         <v>141600</v>
       </c>
-      <c r="K23">
-        <f>J24-J23</f>
+      <c r="C23">
+        <f t="shared" si="0"/>
         <v>428</v>
       </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E24" s="1">
-        <v>144</v>
-      </c>
-      <c r="F24">
-        <v>129928</v>
-      </c>
-      <c r="H24">
-        <v>10</v>
-      </c>
-      <c r="I24" s="2">
-        <v>1408</v>
-      </c>
-      <c r="J24">
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>1408</v>
+      </c>
+      <c r="B24">
         <v>142028</v>
       </c>
-      <c r="K24">
-        <f>J25-J24</f>
-        <v>1412</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="I25" s="2">
-        <v>288</v>
-      </c>
-      <c r="J25">
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>1412</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>288</v>
+      </c>
+      <c r="B25">
         <v>143440</v>
       </c>
-      <c r="K25">
-        <f>J26-J25</f>
-        <v>292</v>
-      </c>
-      <c r="L25">
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>292</v>
+      </c>
+      <c r="D25">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="I26" s="2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
         <v>424</v>
       </c>
-      <c r="J26">
+      <c r="B26">
         <v>143732</v>
       </c>
-      <c r="K26">
-        <f>J27-J26</f>
+      <c r="C26">
+        <f t="shared" si="0"/>
         <v>428</v>
       </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="I27" s="2">
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
         <v>424</v>
       </c>
-      <c r="J27">
+      <c r="B27">
         <v>144160</v>
       </c>
-      <c r="K27">
-        <f>J28-J27</f>
+      <c r="C27">
+        <f t="shared" si="0"/>
         <v>428</v>
       </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="I28" s="2">
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
         <v>424</v>
       </c>
-      <c r="J28">
+      <c r="B28">
         <v>144588</v>
       </c>
-      <c r="K28">
-        <f>J29-J28</f>
+      <c r="C28">
+        <f t="shared" si="0"/>
         <v>428</v>
       </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E29" s="1">
-        <v>144</v>
-      </c>
-      <c r="F29">
-        <v>129928</v>
-      </c>
-      <c r="H29">
-        <v>10</v>
-      </c>
-      <c r="I29">
-        <v>1408</v>
-      </c>
-      <c r="J29">
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>1408</v>
+      </c>
+      <c r="B29">
         <v>145016</v>
       </c>
-      <c r="K29">
-        <f>J30-J29</f>
-        <v>1412</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="I30">
-        <v>288</v>
-      </c>
-      <c r="J30">
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>1412</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>288</v>
+      </c>
+      <c r="B30">
         <v>146428</v>
       </c>
-      <c r="K30">
-        <f>J31-J30</f>
-        <v>292</v>
-      </c>
-      <c r="L30">
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>292</v>
+      </c>
+      <c r="D30">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="I31">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31">
         <v>424</v>
       </c>
-      <c r="J31">
+      <c r="B31">
         <v>146720</v>
       </c>
-      <c r="K31">
-        <f>J32-J31</f>
+      <c r="C31">
+        <f t="shared" si="0"/>
         <v>428</v>
       </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="I32">
+      <c r="D31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32">
         <v>424</v>
       </c>
-      <c r="J32">
+      <c r="B32">
         <v>147148</v>
       </c>
-      <c r="K32">
-        <f>J33-J32</f>
+      <c r="C32">
+        <f t="shared" si="0"/>
         <v>428</v>
       </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="I33">
+      <c r="D32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33">
         <v>424</v>
       </c>
-      <c r="J33">
+      <c r="B33">
         <v>147576</v>
       </c>
-      <c r="K33">
-        <f>J34-J33</f>
+      <c r="C33">
+        <f t="shared" si="0"/>
         <v>428</v>
       </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E34" s="1">
-        <v>144</v>
-      </c>
-      <c r="F34">
-        <v>129928</v>
-      </c>
-      <c r="H34">
-        <v>10</v>
-      </c>
-      <c r="I34" s="2">
-        <v>1408</v>
-      </c>
-      <c r="J34">
+      <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>1408</v>
+      </c>
+      <c r="B34">
         <v>148004</v>
       </c>
-      <c r="K34">
-        <f>J35-J34</f>
-        <v>1412</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="I35" s="2">
-        <v>288</v>
-      </c>
-      <c r="J35">
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>1412</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>288</v>
+      </c>
+      <c r="B35">
         <v>149416</v>
       </c>
-      <c r="K35">
-        <f>J36-J35</f>
-        <v>292</v>
-      </c>
-      <c r="L35">
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>292</v>
+      </c>
+      <c r="D35">
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="I36" s="2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
         <v>424</v>
       </c>
-      <c r="J36">
+      <c r="B36">
         <v>149708</v>
       </c>
-      <c r="K36">
-        <f>J37-J36</f>
+      <c r="C36">
+        <f>B37-B36</f>
         <v>428</v>
       </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="I37" s="2">
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
         <v>424</v>
       </c>
-      <c r="J37">
+      <c r="B37">
         <v>150136</v>
       </c>
-      <c r="K37">
-        <f>J38-J37</f>
+      <c r="C37">
+        <f>B38-B37</f>
         <v>428</v>
       </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="I38" s="2">
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
         <v>424</v>
       </c>
-      <c r="J38">
+      <c r="B38">
         <v>150564</v>
       </c>
-      <c r="K38">
-        <f>J39-J38</f>
+      <c r="C38">
+        <f>B39-B38</f>
         <v>428</v>
       </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E39" s="1">
-        <v>144</v>
-      </c>
-      <c r="F39">
-        <v>129928</v>
-      </c>
-      <c r="H39">
-        <v>10</v>
-      </c>
-      <c r="I39">
-        <v>1408</v>
-      </c>
-      <c r="J39">
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>1408</v>
+      </c>
+      <c r="B39">
         <v>150992</v>
       </c>
-      <c r="K39">
-        <f>J40-J39</f>
-        <v>1412</v>
-      </c>
-      <c r="L39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="I40">
-        <v>288</v>
-      </c>
-      <c r="J40">
+      <c r="C39">
+        <f>B40-B39</f>
+        <v>1412</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>288</v>
+      </c>
+      <c r="B40">
         <v>152404</v>
       </c>
-      <c r="K40">
-        <f>J41-J40</f>
-        <v>292</v>
-      </c>
-      <c r="L40">
+      <c r="C40">
+        <f>B41-B40</f>
+        <v>292</v>
+      </c>
+      <c r="D40">
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="I41">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41">
         <v>424</v>
       </c>
-      <c r="J41">
+      <c r="B41">
         <v>152696</v>
       </c>
-      <c r="K41">
-        <f>J42-J41</f>
+      <c r="C41">
+        <f>B42-B41</f>
         <v>428</v>
       </c>
-      <c r="L41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="I42">
+      <c r="D41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42">
         <v>424</v>
       </c>
-      <c r="J42">
+      <c r="B42">
         <v>153124</v>
       </c>
-      <c r="K42">
-        <f>J43-J42</f>
+      <c r="C42">
+        <f>B43-B42</f>
         <v>428</v>
       </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="I43">
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43">
         <v>424</v>
       </c>
-      <c r="J43">
+      <c r="B43">
         <v>153552</v>
       </c>
-      <c r="K43">
-        <f>J44-J43</f>
+      <c r="C43">
+        <f>B44-B43</f>
         <v>428</v>
       </c>
-      <c r="L43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E44" s="1">
-        <v>144</v>
-      </c>
-      <c r="F44">
-        <v>129928</v>
-      </c>
-      <c r="H44">
-        <v>10</v>
-      </c>
-      <c r="I44" s="2">
-        <v>1408</v>
-      </c>
-      <c r="J44">
+      <c r="D43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>1408</v>
+      </c>
+      <c r="B44">
         <v>153980</v>
       </c>
-      <c r="K44">
-        <f>J45-J44</f>
-        <v>1412</v>
-      </c>
-      <c r="L44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="I45" s="2">
-        <v>288</v>
-      </c>
-      <c r="J45">
+      <c r="C44">
+        <f>B45-B44</f>
+        <v>1412</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <v>288</v>
+      </c>
+      <c r="B45">
         <v>155392</v>
       </c>
-      <c r="K45">
-        <f>J46-J45</f>
-        <v>292</v>
-      </c>
-      <c r="L45">
+      <c r="C45">
+        <f>B46-B45</f>
+        <v>292</v>
+      </c>
+      <c r="D45">
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="I46" s="2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
         <v>424</v>
       </c>
-      <c r="J46">
+      <c r="B46">
         <v>155684</v>
       </c>
-      <c r="K46">
-        <f>J47-J46</f>
+      <c r="C46">
+        <f>B47-B46</f>
         <v>428</v>
       </c>
-      <c r="L46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="I47" s="2">
+      <c r="D46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
         <v>424</v>
       </c>
-      <c r="J47">
+      <c r="B47">
         <v>156112</v>
       </c>
-      <c r="K47">
-        <f>J48-J47</f>
+      <c r="C47">
+        <f>B48-B47</f>
         <v>428</v>
       </c>
-      <c r="L47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="I48" s="2">
+      <c r="D47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
         <v>424</v>
       </c>
-      <c r="J48">
+      <c r="B48">
         <v>156540</v>
       </c>
-      <c r="K48">
-        <f>J49-J48</f>
+      <c r="C48">
+        <f>B49-B48</f>
         <v>428</v>
       </c>
-      <c r="L48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E49" s="1">
-        <v>144</v>
-      </c>
-      <c r="F49">
-        <v>129928</v>
-      </c>
-      <c r="H49">
-        <v>10</v>
-      </c>
-      <c r="I49">
-        <v>1408</v>
-      </c>
-      <c r="J49">
+      <c r="D48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>1408</v>
+      </c>
+      <c r="B49">
         <v>156968</v>
       </c>
-      <c r="K49">
-        <f>J50-J49</f>
-        <v>1412</v>
-      </c>
-      <c r="L49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="I50">
-        <v>288</v>
-      </c>
-      <c r="J50">
+      <c r="C49">
+        <f>B50-B49</f>
+        <v>1412</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>288</v>
+      </c>
+      <c r="B50">
         <v>158380</v>
       </c>
-      <c r="K50">
-        <f>J51-J50</f>
-        <v>292</v>
-      </c>
-      <c r="L50">
+      <c r="C50">
+        <f>B51-B50</f>
+        <v>292</v>
+      </c>
+      <c r="D50">
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="I51">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51">
         <v>424</v>
       </c>
-      <c r="J51">
+      <c r="B51">
         <v>158672</v>
       </c>
-      <c r="K51">
-        <f>J52-J51</f>
+      <c r="C51">
+        <f>B52-B51</f>
         <v>428</v>
       </c>
-      <c r="L51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="I52">
+      <c r="D51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52">
         <v>424</v>
       </c>
-      <c r="J52">
+      <c r="B52">
         <v>159100</v>
       </c>
-      <c r="K52">
-        <f>J53-J52</f>
+      <c r="C52">
+        <f>B53-B52</f>
         <v>428</v>
       </c>
-      <c r="L52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="I53">
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53">
         <v>424</v>
       </c>
-      <c r="J53">
+      <c r="B53">
         <v>159528</v>
       </c>
-      <c r="L53">
+      <c r="D53">
         <v>0</v>
       </c>
     </row>
